--- a/data/annotations/new_annotation_structure_out/iteration_6/iteration_6_mistral-large-2411-2.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_6/iteration_6_mistral-large-2411-2.xlsx
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5684,10 +5684,10 @@
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5831,13 +5831,13 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" t="n">
         <v>0</v>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -8008,10 +8008,10 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -8086,10 +8086,10 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
